--- a/docs/BOM/ProMicro_LOG.xlsx
+++ b/docs/BOM/ProMicro_LOG.xlsx
@@ -157,19 +157,19 @@
     <t>Schematic Version:</t>
   </si>
   <si>
-    <t>v1.0</t>
+    <t>v1.1</t>
   </si>
   <si>
     <t>Schematic Date:</t>
   </si>
   <si>
-    <t>2020-07-13</t>
+    <t>2020-08-15</t>
   </si>
   <si>
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 14:22:55 2020</t>
+    <t>Sat Aug 15 08:05:43 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
